--- a/docs/odh/shr-core-ResearchStudy-model.xlsx
+++ b/docs/odh/shr-core-ResearchStudy-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="124">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-ResearchStudy-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-ResearchStudy-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-ResearchStudy-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +205,7 @@
     <t>shr-core-ResearchStudy-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchStudy-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ResearchStudy-model]]}
 </t>
   </si>
   <si>
@@ -226,20 +222,101 @@
     <t>A distinguishing word or group of words naming an item.</t>
   </si>
   <si>
-    <t>shr-core-ResearchStudy-model.commentOrDescription</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0947611
+    <t>shr-core-ResearchStudy-model.purpose</t>
+  </si>
+  <si>
+    <t>Description of the intent or use of the item.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.researchStudyPhase</t>
+  </si>
+  <si>
+    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.focalSubject</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.conditionStudied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model]]}
 </t>
   </si>
   <si>
+    <t>The condition that is the focus of the study. For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion 'healthy volunteer', but the target condition code would be a Lupus SNOMED code.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.contactDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactDetail-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Describes an individual and how to reach them.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedArtifact-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Items such as additional documentation, justification, or bibliographic references, that provide background for the current item.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.keyword</t>
+  </si>
+  <si>
+    <t>Key terms to aid in searching for or filtering the study.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.jurisdiction</t>
+  </si>
+  <si>
+    <t>The country, state or other region taking legal responsibility.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.descriptionMarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A description of the purpose of the item.</t>
+  </si>
+  <si>
     <t>shr-core-ResearchStudy-model.enrollment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group-model]]}
 </t>
   </si>
   <si>
@@ -253,7 +330,7 @@
     <t>shr-core-ResearchStudy-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -267,43 +344,17 @@
     <t>shr-core-ResearchStudy-model.sponsor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
     <t>The organization responsible for the execution of the study.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
-</t>
-  </si>
-  <si>
-    <t>shr-core-ResearchStudy-model.jurisdiction</t>
-  </si>
-  <si>
-    <t>The country, state or other region taking legal responsibility for the conduct of the study.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>shr-core-ResearchStudy-model.contactDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactDetail-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Describes an individual and how to reach them.</t>
-  </si>
-  <si>
     <t>shr-core-ResearchStudy-model.principalInvestigator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model]]}
 </t>
   </si>
   <si>
@@ -317,41 +368,47 @@
     <t>shr-core-ResearchStudy-model.location</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547538
+    <t>shr-core-ResearchStudy-model.terminationReason</t>
+  </si>
+  <si>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-ResearchStudy-model.terminationReason</t>
-  </si>
-  <si>
-    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
-  </si>
-  <si>
-    <t>shr-core-ResearchStudy-model.annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.studyArm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StudyArm-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
-  </si>
-  <si>
-    <t>shr-core-ResearchStudy-model.studyArm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StudyArm-model {[]} {[]}
+    <t>Arm refers to pre-specified group or subgroup of participant(s) in a clinical trial assigned to receive specific intervention(s) (or no intervention) according to a protocol.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchStudy-model.studyObjective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StudyObjective-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Arm refers to pre-specified group or subgroup of participant(s) in a clinical trial assigned to receive specific intervention(s) (or no intervention) according to a protocol.</t>
+    <t>A goal that the study is aiming to achieve in terms of a scientific question to be answered by the analysis of data collected during the study.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -509,7 +566,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.0" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -519,7 +576,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -533,13 +590,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.33203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.67578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="50.265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="49.0" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -912,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -944,7 +1001,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -967,13 +1024,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1024,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1041,7 +1098,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1064,13 +1121,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1121,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1138,7 +1195,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1164,10 +1221,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1194,11 +1251,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1216,7 +1273,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1233,7 +1290,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1256,13 +1313,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1313,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1330,7 +1387,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1353,13 +1410,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1410,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1427,7 +1484,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1450,13 +1507,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1507,7 +1564,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1524,7 +1581,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1547,13 +1604,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1580,16 +1637,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1604,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1632,7 +1687,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>36</v>
@@ -1644,13 +1699,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1677,16 +1732,14 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1707,7 +1760,7 @@
         <v>37</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>36</v>
@@ -1729,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1741,13 +1794,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1783,7 +1836,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1804,7 +1857,7 @@
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1815,7 +1868,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1826,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1838,13 +1891,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1880,7 +1933,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1895,13 +1948,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -1912,7 +1965,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1923,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1935,13 +1988,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1968,11 +2021,13 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>36</v>
@@ -1990,13 +2045,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2007,7 +2062,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2030,13 +2085,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2087,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2104,7 +2159,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2115,7 +2170,7 @@
         <v>37</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>36</v>
@@ -2127,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2169,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2184,13 +2239,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2201,7 +2256,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2224,13 +2279,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2266,7 +2321,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2281,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2298,7 +2353,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2309,7 +2364,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2324,10 +2379,10 @@
         <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2354,13 +2409,11 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>36</v>
@@ -2378,13 +2431,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2395,7 +2448,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2406,7 +2459,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2418,13 +2471,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2475,13 +2528,13 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2492,7 +2545,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2515,13 +2568,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2557,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2572,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2587,8 +2640,784 @@
         <v>36</v>
       </c>
     </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI21">
+  <autoFilter ref="A1:AI29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2598,7 +3427,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
